--- a/dokumente/Zeitplanung.xlsx
+++ b/dokumente/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjorngedeon/Documents/eigenes Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/matchplanner/dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A31690-BC2E-8E41-AD06-754C6118F84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B551573-C916-1742-B669-5E8ACAB325E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20140" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1580,6 +1580,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,10 +1614,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1795,7 +1795,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2302,8 +2302,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="117" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2622,88 +2622,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="108" t="s">
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="108" t="s">
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="110" t="s">
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="108" t="s">
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AJ7" s="108"/>
-      <c r="AK7" s="108"/>
-      <c r="AL7" s="108"/>
-      <c r="AM7" s="108"/>
-      <c r="AN7" s="108"/>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="110" t="s">
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="109"/>
+      <c r="AM7" s="109"/>
+      <c r="AN7" s="109"/>
+      <c r="AO7" s="110"/>
+      <c r="AP7" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="AQ7" s="108"/>
-      <c r="AR7" s="108"/>
-      <c r="AS7" s="108"/>
-      <c r="AT7" s="108"/>
-      <c r="AU7" s="108"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="108" t="s">
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="109"/>
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="109"/>
+      <c r="AV7" s="110"/>
+      <c r="AW7" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="AX7" s="108"/>
-      <c r="AY7" s="108"/>
-      <c r="AZ7" s="108"/>
-      <c r="BA7" s="108"/>
-      <c r="BB7" s="108"/>
-      <c r="BC7" s="109"/>
-      <c r="BD7" s="110" t="s">
+      <c r="AX7" s="109"/>
+      <c r="AY7" s="109"/>
+      <c r="AZ7" s="109"/>
+      <c r="BA7" s="109"/>
+      <c r="BB7" s="109"/>
+      <c r="BC7" s="110"/>
+      <c r="BD7" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="BE7" s="108"/>
-      <c r="BF7" s="108"/>
-      <c r="BG7" s="108"/>
-      <c r="BH7" s="108"/>
-      <c r="BI7" s="108"/>
-      <c r="BJ7" s="111"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="109"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
+      <c r="BI7" s="109"/>
+      <c r="BJ7" s="112"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3666,7 +3666,7 @@
       <c r="C19" s="48"/>
       <c r="D19" s="80">
         <f t="shared" ref="D19:D33" si="1">SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
@@ -3681,7 +3681,9 @@
       <c r="O19" s="53"/>
       <c r="P19" s="87"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="55"/>
+      <c r="R19" s="105">
+        <v>1</v>
+      </c>
       <c r="S19" s="56"/>
       <c r="T19" s="57"/>
       <c r="U19" s="52"/>
@@ -3739,7 +3741,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3747,14 +3749,16 @@
       <c r="H20" s="59"/>
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="116"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="56"/>
       <c r="M20" s="57"/>
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="87"/>
       <c r="Q20" s="54"/>
-      <c r="R20" s="105"/>
+      <c r="R20" s="105">
+        <v>6</v>
+      </c>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
@@ -3812,7 +3816,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="51"/>
@@ -3829,7 +3833,9 @@
       <c r="Q21" s="104">
         <v>6</v>
       </c>
-      <c r="R21" s="105"/>
+      <c r="R21" s="105">
+        <v>1</v>
+      </c>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
@@ -5528,7 +5534,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5578,7 +5584,7 @@
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -5803,10 +5809,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5815,11 +5821,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="str">
+      <c r="A3" s="113" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="113"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>10</v>
@@ -5832,11 +5838,11 @@
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="str">
+      <c r="A4" s="113" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="113"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>8.5</v>
@@ -5849,28 +5855,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="113" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>42</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="str">
+      <c r="A6" s="113" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>0</v>
@@ -5882,11 +5888,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="str">
+      <c r="A7" s="113" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="113"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>8</v>
@@ -5898,11 +5904,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="str">
+      <c r="A8" s="113" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="113"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>0</v>

--- a/dokumente/Zeitplanung.xlsx
+++ b/dokumente/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/matchplanner/dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B551573-C916-1742-B669-5E8ACAB325E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F3B25-26EC-434A-884E-31821689E89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20140" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1789,13 +1789,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="117" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D12" s="80">
         <f t="shared" ref="D12:D13" si="0">SUM(G12:BJ12)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3171,7 +3171,9 @@
       <c r="T12" s="57"/>
       <c r="U12" s="58"/>
       <c r="V12" s="59"/>
-      <c r="W12" s="102"/>
+      <c r="W12" s="102">
+        <v>0.5</v>
+      </c>
       <c r="X12" s="60"/>
       <c r="Y12" s="55"/>
       <c r="Z12" s="56"/>
@@ -3595,7 +3597,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3816,7 +3818,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="51"/>
@@ -3840,7 +3842,9 @@
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
       <c r="V21" s="59"/>
-      <c r="W21" s="104"/>
+      <c r="W21" s="104">
+        <v>2</v>
+      </c>
       <c r="X21" s="54"/>
       <c r="Y21" s="55"/>
       <c r="Z21" s="56"/>
@@ -3893,7 +3897,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -3913,8 +3917,12 @@
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
       <c r="V22" s="59"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
+      <c r="W22" s="104">
+        <v>6</v>
+      </c>
+      <c r="X22" s="104">
+        <v>1.5</v>
+      </c>
       <c r="Y22" s="55"/>
       <c r="Z22" s="56"/>
       <c r="AA22" s="57"/>
@@ -3966,7 +3974,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
@@ -3987,8 +3995,12 @@
       <c r="U23" s="58"/>
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="105"/>
+      <c r="X23" s="102">
+        <v>7.5</v>
+      </c>
+      <c r="Y23" s="105">
+        <v>1</v>
+      </c>
       <c r="Z23" s="56"/>
       <c r="AA23" s="57"/>
       <c r="AB23" s="97"/>
@@ -4039,7 +4051,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
@@ -4061,7 +4073,9 @@
       <c r="V24" s="59"/>
       <c r="W24" s="54"/>
       <c r="X24" s="54"/>
-      <c r="Y24" s="105"/>
+      <c r="Y24" s="105">
+        <v>9</v>
+      </c>
       <c r="Z24" s="56"/>
       <c r="AA24" s="57"/>
       <c r="AB24" s="97"/>
@@ -5534,7 +5548,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>18.5</v>
+        <v>46</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5604,15 +5618,15 @@
       </c>
       <c r="W45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z45" s="38">
         <f t="shared" si="4"/>
@@ -5832,7 +5846,7 @@
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
@@ -5866,7 +5880,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
